--- a/config/forms/contact/outbreak_location-create.xlsx
+++ b/config/forms/contact/outbreak_location-create.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\morlig\icap\dmi-adam-repositories\dmi-adam\config\forms\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE4902C-2CA2-4E4C-855B-4ABEFAA11DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2815F23A-AE3C-4768-8CE2-95795302481E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6504,11 +6504,11 @@
   <dimension ref="A1:AF983"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G24" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C2" sqref="C2"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B32" sqref="B32"/>
+      <selection pane="bottomRight" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -37211,7 +37211,7 @@
       </c>
       <c r="C2" s="6" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2023-11-28 12-32</v>
+        <v>2024-01-11 11-49</v>
       </c>
       <c r="D2" t="s">
         <v>49</v>

--- a/config/forms/contact/outbreak_location-create.xlsx
+++ b/config/forms/contact/outbreak_location-create.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\morlig\icap\dmi-adam-repositories\dmi-adam\config\forms\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B094BC9-6E0A-4262-AAB8-2C06CDA7CCE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E0434D-0B9E-484D-935B-3D6430199769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7830" uniqueCount="1985">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7835" uniqueCount="1986">
   <si>
     <t>type</t>
   </si>
@@ -5993,6 +5993,9 @@
   </si>
   <si>
     <t>Disease name</t>
+  </si>
+  <si>
+    <t>../../outbreak_location/outbreak/disease_name</t>
   </si>
 </sst>
 </file>
@@ -6420,14 +6423,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF983"/>
+  <dimension ref="A1:AF984"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C2" sqref="C2"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C35" sqref="C35"/>
+      <selection pane="bottomRight" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7102,73 +7105,79 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="34" spans="1:13" s="10" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="10" t="s">
+    <row r="33" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1983</v>
+      </c>
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" t="s">
+        <v>1940</v>
+      </c>
+      <c r="J33" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="35" spans="1:13" s="10" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B35" s="10" t="s">
         <v>1945</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C35" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F34" s="15" t="s">
+      <c r="F35" s="15" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" s="11" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>1942</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>1943</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>1944</v>
-      </c>
-      <c r="G35" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J35" s="14" t="s">
-        <v>1952</v>
-      </c>
-      <c r="M35" s="14"/>
     </row>
     <row r="36" spans="1:13" s="11" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B36" s="11" t="s">
+        <v>1942</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>1943</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>1944</v>
+      </c>
+      <c r="G36" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="C36" s="11" t="s">
-        <v>1941</v>
-      </c>
+      <c r="J36" s="14" t="s">
+        <v>1952</v>
+      </c>
+      <c r="M36" s="14"/>
     </row>
     <row r="37" spans="1:13" s="11" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>1946</v>
+        <v>1</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>1949</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="38" spans="1:13" s="11" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="24" t="s">
-        <v>1981</v>
-      </c>
-      <c r="C38" s="23" t="s">
-        <v>1982</v>
+      <c r="B38" s="11" t="s">
+        <v>1946</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>1949</v>
       </c>
     </row>
     <row r="39" spans="1:13" s="11" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -7176,21 +7185,21 @@
         <v>27</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>1983</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>1984</v>
+        <v>1981</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>1982</v>
       </c>
     </row>
     <row r="40" spans="1:13" s="11" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B40" s="11" t="s">
-        <v>1947</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>1950</v>
+      <c r="B40" s="24" t="s">
+        <v>1983</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>1984</v>
       </c>
     </row>
     <row r="41" spans="1:13" s="11" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -7198,21 +7207,21 @@
         <v>27</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="42" spans="1:13" s="11" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>52</v>
+      <c r="B42" s="11" t="s">
+        <v>1948</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>1951</v>
       </c>
     </row>
     <row r="43" spans="1:13" s="11" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -7220,50 +7229,41 @@
         <v>27</v>
       </c>
       <c r="B43" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" s="11" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C44" s="17" t="s">
         <v>1958</v>
       </c>
     </row>
-    <row r="44" spans="1:13" s="10" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="10" t="s">
+    <row r="45" spans="1:13" s="10" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B45" s="10" t="s">
         <v>1945</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="46" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>301</v>
-      </c>
-      <c r="B46" t="s">
-        <v>1954</v>
-      </c>
-      <c r="C46" t="s">
-        <v>52</v>
-      </c>
-      <c r="D46" t="s">
-        <v>26</v>
-      </c>
-      <c r="F46" t="s">
-        <v>55</v>
-      </c>
-      <c r="J46" t="s">
-        <v>1953</v>
-      </c>
-    </row>
+    <row r="46" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="47" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B47" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="C47" t="s">
-        <v>1938</v>
+        <v>52</v>
       </c>
       <c r="D47" t="s">
         <v>26</v>
@@ -7272,47 +7272,56 @@
         <v>55</v>
       </c>
       <c r="J47" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>302</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1955</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1938</v>
+      </c>
+      <c r="D48" t="s">
+        <v>26</v>
+      </c>
+      <c r="F48" t="s">
+        <v>55</v>
+      </c>
+      <c r="J48" t="s">
         <v>1957</v>
       </c>
-      <c r="K47" t="s">
+      <c r="K48" t="s">
         <v>1956</v>
       </c>
     </row>
-    <row r="48" spans="1:13" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="21" t="s">
+    <row r="49" spans="1:10" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B48" s="21" t="s">
+      <c r="B49" s="21" t="s">
         <v>1970</v>
       </c>
-      <c r="J48" s="21" t="s">
+      <c r="J49" s="21" t="s">
         <v>1974</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="50" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="12" t="s">
+    <row r="50" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="51" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B51" s="12" t="s">
         <v>1937</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C51" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F50" s="12" t="s">
+      <c r="F51" s="12" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J51" s="13" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="52" spans="1:10" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -7320,10 +7329,10 @@
         <v>28</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J52" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:10" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -7331,15 +7340,21 @@
         <v>28</v>
       </c>
       <c r="B53" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J53" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B54" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="J53" s="13" t="s">
+      <c r="J54" s="13" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="12" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -7347,7 +7362,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="56" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8275,6 +8294,7 @@
     <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -36974,7 +36994,7 @@
       </c>
       <c r="C2" s="6" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2024-01-22 13-09</v>
+        <v>2024-01-26 15-54</v>
       </c>
       <c r="D2" t="s">
         <v>47</v>

--- a/config/forms/contact/outbreak_location-create.xlsx
+++ b/config/forms/contact/outbreak_location-create.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\morlig\icap\dmi-adam-repositories\dmi-adam\config\forms\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E0434D-0B9E-484D-935B-3D6430199769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30977D73-F0B3-4D0D-95EC-593201A0FC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7835" uniqueCount="1986">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7838" uniqueCount="1987">
   <si>
     <t>type</t>
   </si>
@@ -5917,9 +5917,6 @@
     <t>Sub-county</t>
   </si>
   <si>
-    <t>concat(${ol_county}, ' &gt; ', ${ol_subcounty})</t>
-  </si>
-  <si>
     <t>init</t>
   </si>
   <si>
@@ -5996,6 +5993,12 @@
   </si>
   <si>
     <t>../../outbreak_location/outbreak/disease_name</t>
+  </si>
+  <si>
+    <t>ol_name</t>
+  </si>
+  <si>
+    <t>concat(${ol_name}, ' ')</t>
   </si>
 </sst>
 </file>
@@ -6423,14 +6426,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF984"/>
+  <dimension ref="A1:AF985"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C40" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C2" sqref="C2"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C33" sqref="C33"/>
+      <selection pane="bottomRight" activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6785,7 +6788,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>16</v>
@@ -6796,13 +6799,13 @@
     </row>
     <row r="11" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>1961</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="C11" s="18" t="s">
         <v>1962</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>1963</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>26</v>
@@ -6820,7 +6823,7 @@
       <c r="K11" s="18"/>
       <c r="L11" s="18"/>
       <c r="M11" s="7" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="N11" s="18"/>
       <c r="O11" s="18"/>
@@ -6838,22 +6841,22 @@
     </row>
     <row r="12" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="18" t="s">
+        <v>1964</v>
+      </c>
+      <c r="B12" s="18" t="s">
         <v>1965</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="C12" t="s">
         <v>1966</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1967</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>26</v>
       </c>
       <c r="E12" t="s">
+        <v>1967</v>
+      </c>
+      <c r="F12" s="18" t="s">
         <v>1968</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>1969</v>
       </c>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
@@ -6887,7 +6890,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>16</v>
@@ -6922,7 +6925,7 @@
         <v>16</v>
       </c>
       <c r="M17" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6942,18 +6945,18 @@
         <v>1940</v>
       </c>
       <c r="J18" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>1974</v>
+      </c>
+      <c r="B19" t="s">
         <v>1975</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>1976</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1977</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6962,7 +6965,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>16</v>
@@ -7078,14 +7081,11 @@
       <c r="C31" t="s">
         <v>16</v>
       </c>
-      <c r="D31" t="s">
-        <v>26</v>
-      </c>
       <c r="I31" t="s">
         <v>1940</v>
       </c>
       <c r="J31" t="s">
-        <v>1959</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -7093,7 +7093,7 @@
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="C32" t="s">
         <v>16</v>
@@ -7102,7 +7102,7 @@
         <v>1940</v>
       </c>
       <c r="J32" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -7110,7 +7110,7 @@
         <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="C33" t="s">
         <v>16</v>
@@ -7119,7 +7119,7 @@
         <v>1940</v>
       </c>
       <c r="J33" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="14.5" x14ac:dyDescent="0.35"/>
@@ -7185,10 +7185,10 @@
         <v>27</v>
       </c>
       <c r="B39" s="24" t="s">
+        <v>1980</v>
+      </c>
+      <c r="C39" s="23" t="s">
         <v>1981</v>
-      </c>
-      <c r="C39" s="23" t="s">
-        <v>1982</v>
       </c>
     </row>
     <row r="40" spans="1:13" s="11" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -7196,10 +7196,10 @@
         <v>27</v>
       </c>
       <c r="B40" s="24" t="s">
+        <v>1982</v>
+      </c>
+      <c r="C40" s="24" t="s">
         <v>1983</v>
-      </c>
-      <c r="C40" s="24" t="s">
-        <v>1984</v>
       </c>
     </row>
     <row r="41" spans="1:13" s="11" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -7257,13 +7257,13 @@
     <row r="46" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="47" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>301</v>
+        <v>18</v>
       </c>
       <c r="B47" t="s">
-        <v>1954</v>
+        <v>1985</v>
       </c>
       <c r="C47" t="s">
-        <v>52</v>
+        <v>1941</v>
       </c>
       <c r="D47" t="s">
         <v>26</v>
@@ -7272,109 +7272,122 @@
         <v>55</v>
       </c>
       <c r="J47" t="s">
-        <v>1953</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B48" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="C48" t="s">
-        <v>1938</v>
-      </c>
-      <c r="D48" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="F48" t="s">
         <v>55</v>
       </c>
       <c r="J48" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>302</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1955</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1938</v>
+      </c>
+      <c r="F49" t="s">
+        <v>55</v>
+      </c>
+      <c r="J49" t="s">
         <v>1957</v>
       </c>
-      <c r="K48" t="s">
+      <c r="K49" t="s">
         <v>1956</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="21" t="s">
+    <row r="50" spans="1:11" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B49" s="21" t="s">
-        <v>1970</v>
-      </c>
-      <c r="J49" s="21" t="s">
-        <v>1974</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="51" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="12" t="s">
+      <c r="B50" s="21" t="s">
+        <v>1969</v>
+      </c>
+      <c r="J50" s="21" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="52" spans="1:11" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B52" s="12" t="s">
         <v>1937</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C52" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F51" s="12" t="s">
+      <c r="F52" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J52" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="13" t="s">
         <v>28</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J53" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="13" t="s">
         <v>28</v>
       </c>
       <c r="B54" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J54" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B55" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="J54" s="13" t="s">
+      <c r="J55" s="13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="57" spans="1:11" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="59" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="60" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="61" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="62" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="63" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="64" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8295,6 +8308,7 @@
     <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -8366,13 +8380,13 @@
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>1963</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>1970</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>1964</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>1971</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -36994,7 +37008,7 @@
       </c>
       <c r="C2" s="6" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2024-01-26 15-54</v>
+        <v>2024-01-29 8-46</v>
       </c>
       <c r="D2" t="s">
         <v>47</v>
